--- a/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级核化工与核燃料工程班.xlsx
+++ b/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级核化工与核燃料工程班.xlsx
@@ -538,7 +538,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>10.5</v>
@@ -580,7 +580,7 @@
         <v>84</v>
       </c>
       <c r="R2" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -712,7 +712,7 @@
         <v>16.5</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>6.5</v>
@@ -754,7 +754,7 @@
         <v>92</v>
       </c>
       <c r="R5" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
